--- a/trunk/src/test/target/v850esfk3/test/add2/TEST_ADD2.xlsx
+++ b/trunk/src/test/target/v850esfk3/test/add2/TEST_ADD2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TEST_SPEC" sheetId="4" r:id="rId1"/>
@@ -13,9 +13,9 @@
     <sheet name="TEST_ITEM" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEST_ITEM!$B$4:$R$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEST_ITEM!$B$4:$S$85</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">TEST_DATA!$A$1:$E$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">TEST_ITEM!$A$1:$S$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">TEST_ITEM!$A$1:$T$85</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">TEST_SPEC!$A$1:$I$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">TEST_TARGET!$A$1:$G$40</definedName>
   </definedNames>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="155">
   <si>
     <t>テスト番号</t>
     <rPh sb="3" eb="5">
@@ -777,10 +777,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>imm5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>計算用列1</t>
     <rPh sb="3" eb="4">
       <t>レツ</t>
@@ -890,6 +886,38 @@
   </si>
   <si>
     <t>レジスタ(reg2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>imm5(16進表記)</t>
+    <rPh sb="7" eb="8">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>imm5(10進表記)</t>
+    <rPh sb="7" eb="8">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7FFFFFEE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FFFFFFFC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FFFFFFFD</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1138,7 +1166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1212,6 +1240,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1552,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1569,19 +1600,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="25"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="23" t="s">
         <v>52</v>
       </c>
@@ -1619,28 +1650,28 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="25"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="27"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="13" t="s">
         <v>57</v>
       </c>
@@ -1669,30 +1700,30 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="25"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="27"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="13" t="s">
         <v>66</v>
       </c>
@@ -1733,30 +1764,30 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="1" t="s">
         <v>97</v>
       </c>
@@ -1784,16 +1815,16 @@
         <v>81</v>
       </c>
       <c r="F16" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I16" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2244,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>40</v>
@@ -2270,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>23</v>
@@ -2296,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>21</v>
@@ -2322,7 +2353,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
@@ -2348,7 +2379,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>24</v>
@@ -2374,7 +2405,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>27</v>
@@ -2400,7 +2431,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>28</v>
@@ -2426,7 +2457,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>29</v>
@@ -2452,7 +2483,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>25</v>
@@ -2716,13 +2747,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S91"/>
+  <dimension ref="B2:T91"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="H29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P86" sqref="P86"/>
+      <selection pane="bottomRight" activeCell="R65" sqref="R65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2731,85 +2762,88 @@
     <col min="2" max="2" width="9.625" style="3" customWidth="1"/>
     <col min="3" max="4" width="16.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="3"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="31" t="s">
+    <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="H2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B3" s="30"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="9" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B3" s="31"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="I3" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="L3" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B4" s="27"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B4" s="28"/>
       <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
@@ -2817,52 +2851,55 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>1</v>
-      </c>
       <c r="P4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -2876,26 +2913,27 @@
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="str">
-        <f>I5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="7" t="str">
-        <f>DEC2HEX(HEX2DEC(H5)+HEX2DEC(F5))</f>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f>J5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <f>E5</f>
         <v>0</v>
       </c>
       <c r="J5" s="7" t="str">
-        <f t="shared" ref="J5:J36" si="0">BIN2HEX(S5)</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
+        <f>DEC2HEX(HEX2DEC(I5)+HEX2DEC(G5))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" ref="K5:K36" si="0">BIN2HEX(T5)</f>
+        <v>1</v>
       </c>
       <c r="L5" s="8">
         <v>0</v>
@@ -2916,14 +2954,17 @@
         <v>0</v>
       </c>
       <c r="R5" s="8">
-        <v>1</v>
-      </c>
-      <c r="S5" s="7" t="str">
-        <f t="shared" ref="S5:S36" si="1">K5&amp;L5&amp;M5&amp;N5&amp;O5&amp;P5&amp;Q5&amp;R5</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="8">
+        <v>1</v>
+      </c>
+      <c r="T5" s="7" t="str">
+        <f t="shared" ref="T5:T36" si="1">L5&amp;M5&amp;N5&amp;O5&amp;P5&amp;Q5&amp;R5&amp;S5</f>
         <v>00000001</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -2937,27 +2978,28 @@
         <v>0</v>
       </c>
       <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7" t="str">
-        <f t="shared" ref="G6:G69" si="2">I6</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" ref="H6:H49" si="3">E6</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="7" t="str">
-        <f t="shared" ref="I6:I69" si="4">DEC2HEX(HEX2DEC(H6)+HEX2DEC(F6))</f>
-        <v>1</v>
+        <f t="shared" ref="F6:F10" si="2">E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" ref="H6:H69" si="3">J6</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:I49" si="4">E6</f>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="str">
+        <f t="shared" ref="J6:J69" si="5">DEC2HEX(HEX2DEC(I6)+HEX2DEC(G6))</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
       <c r="L6" s="8">
         <v>0</v>
       </c>
@@ -2979,12 +3021,15 @@
       <c r="R6" s="8">
         <v>0</v>
       </c>
-      <c r="S6" s="7" t="str">
+      <c r="S6" s="8">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7" t="str">
         <f t="shared" si="1"/>
         <v>00000000</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -2998,1820 +3043,1940 @@
         <v>0</v>
       </c>
       <c r="F7" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
         <v>2</v>
       </c>
-      <c r="G7" s="7" t="str">
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>7FFFFFFE</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>7FFFFFFE</v>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>7FFFFFFF</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>7FFFFFFF</v>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0</v>
+      </c>
+      <c r="T9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>FFFFFFFE</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFFFFE</v>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H7" s="7">
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0</v>
+      </c>
+      <c r="R10" s="8">
+        <v>1</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0</v>
+      </c>
+      <c r="T10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>00000010</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <f>HEX2DEC(E11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="str">
+        <v>FFFFFFFF</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFFFFF</v>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0</v>
+      </c>
+      <c r="R11" s="8">
+        <v>1</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0</v>
+      </c>
+      <c r="T11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>00000010</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12:F49" si="6">HEX2DEC(E12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>80000001</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>80000001</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>80000001</v>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8">
+        <v>1</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0</v>
+      </c>
+      <c r="T12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>00000010</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>80000000</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>80000000</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>80000000</v>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0</v>
+      </c>
+      <c r="R13" s="8">
+        <v>1</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0</v>
+      </c>
+      <c r="T13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>00000010</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0</v>
+      </c>
+      <c r="S14" s="8">
+        <v>0</v>
+      </c>
+      <c r="T14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B15" s="4">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0</v>
+      </c>
+      <c r="S15" s="8">
+        <v>0</v>
+      </c>
+      <c r="T15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0</v>
+      </c>
+      <c r="S16" s="8">
+        <v>0</v>
+      </c>
+      <c r="T16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B17" s="4">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>7FFFFFFF</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>7FFFFFFF</v>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0</v>
+      </c>
+      <c r="S17" s="8">
+        <v>0</v>
+      </c>
+      <c r="T17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B18" s="4">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>80000000</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>80000000</v>
+      </c>
+      <c r="K18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>1</v>
+      </c>
+      <c r="R18" s="8">
+        <v>1</v>
+      </c>
+      <c r="S18" s="8">
+        <v>0</v>
+      </c>
+      <c r="T18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>00000110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B19" s="4">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>FFFFFFFF</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>FFFFFFFF</v>
+      </c>
+      <c r="K19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
+      <c r="P19" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
+        <v>1</v>
+      </c>
+      <c r="S19" s="8">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>00000010</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B20" s="4">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>100000000</v>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0</v>
+      </c>
+      <c r="S20" s="8">
+        <v>1</v>
+      </c>
+      <c r="T20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>00001001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B21" s="4">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>80000001</v>
+      </c>
+      <c r="H21" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>80000002</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>80000002</v>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>0</v>
+      </c>
+      <c r="R21" s="8">
+        <v>1</v>
+      </c>
+      <c r="S21" s="8">
+        <v>0</v>
+      </c>
+      <c r="T21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>00000010</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B22" s="4">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>80000000</v>
+      </c>
+      <c r="H22" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>80000001</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>80000001</v>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0</v>
+      </c>
+      <c r="R22" s="8">
+        <v>1</v>
+      </c>
+      <c r="S22" s="8">
+        <v>0</v>
+      </c>
+      <c r="T22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>00000010</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B23" s="4">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I23" s="7">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J7" s="7" t="str">
+      <c r="J23" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K23" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>0</v>
-      </c>
-      <c r="R7" s="8">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7" t="str">
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0</v>
+      </c>
+      <c r="S23" s="8">
+        <v>0</v>
+      </c>
+      <c r="T23" s="7" t="str">
         <f t="shared" si="1"/>
         <v>00000000</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>7FFFFFFE</v>
-      </c>
-      <c r="H8" s="7">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B24" s="4">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="str">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7">
         <f t="shared" si="4"/>
-        <v>7FFFFFFE</v>
-      </c>
-      <c r="J8" s="7" t="str">
+        <v>2</v>
+      </c>
+      <c r="J24" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K24" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>0</v>
-      </c>
-      <c r="R8" s="8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7" t="str">
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0</v>
+      </c>
+      <c r="P24" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>0</v>
+      </c>
+      <c r="R24" s="8">
+        <v>0</v>
+      </c>
+      <c r="S24" s="8">
+        <v>0</v>
+      </c>
+      <c r="T24" s="7" t="str">
         <f t="shared" si="1"/>
         <v>00000000</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>7FFFFFFF</v>
-      </c>
-      <c r="H9" s="7">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B25" s="4">
+        <v>21</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G25" s="6">
+        <v>2</v>
+      </c>
+      <c r="H25" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="I25" s="7">
         <f t="shared" si="4"/>
-        <v>7FFFFFFF</v>
-      </c>
-      <c r="J9" s="7" t="str">
+        <v>2</v>
+      </c>
+      <c r="J25" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K25" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>0</v>
-      </c>
-      <c r="R9" s="8">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7" t="str">
+      <c r="L25" s="8">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0</v>
+      </c>
+      <c r="P25" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>0</v>
+      </c>
+      <c r="R25" s="8">
+        <v>0</v>
+      </c>
+      <c r="S25" s="8">
+        <v>0</v>
+      </c>
+      <c r="T25" s="7" t="str">
         <f t="shared" si="1"/>
         <v>00000000</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B10" s="4">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B26" s="4">
+        <v>22</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>80000000</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J26" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>80000000</v>
+      </c>
+      <c r="K26" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0</v>
+      </c>
+      <c r="O26" s="8">
+        <v>0</v>
+      </c>
+      <c r="P26" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>1</v>
+      </c>
+      <c r="R26" s="8">
+        <v>1</v>
+      </c>
+      <c r="S26" s="8">
+        <v>0</v>
+      </c>
+      <c r="T26" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>00000110</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B27" s="4">
+        <v>23</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>80000001</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J27" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>80000001</v>
+      </c>
+      <c r="K27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0</v>
+      </c>
+      <c r="P27" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>1</v>
+      </c>
+      <c r="R27" s="8">
+        <v>1</v>
+      </c>
+      <c r="S27" s="8">
+        <v>0</v>
+      </c>
+      <c r="T27" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>00000110</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B28" s="4">
+        <v>24</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>FFFFFFFE</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J28" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>100000000</v>
+      </c>
+      <c r="K28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0</v>
+      </c>
+      <c r="M28" s="8">
+        <v>0</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0</v>
+      </c>
+      <c r="O28" s="8">
+        <v>0</v>
+      </c>
+      <c r="P28" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>0</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0</v>
+      </c>
+      <c r="S28" s="8">
+        <v>1</v>
+      </c>
+      <c r="T28" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>00001001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B29" s="4">
+        <v>25</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J29" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>100000001</v>
+      </c>
+      <c r="K29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0</v>
+      </c>
+      <c r="O29" s="8">
+        <v>0</v>
+      </c>
+      <c r="P29" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>0</v>
+      </c>
+      <c r="R29" s="8">
+        <v>0</v>
+      </c>
+      <c r="S29" s="8">
+        <v>0</v>
+      </c>
+      <c r="T29" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>00001000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B30" s="4">
+        <v>26</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G30" s="6">
+        <v>80000001</v>
+      </c>
+      <c r="H30" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="str">
+        <v>80000003</v>
+      </c>
+      <c r="I30" s="7">
         <f t="shared" si="4"/>
-        <v>FFFFFFFE</v>
-      </c>
-      <c r="J10" s="7" t="str">
+        <v>2</v>
+      </c>
+      <c r="J30" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>80000003</v>
+      </c>
+      <c r="K30" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>1</v>
-      </c>
-      <c r="R10" s="8">
-        <v>0</v>
-      </c>
-      <c r="S10" s="7" t="str">
+      <c r="L30" s="8">
+        <v>0</v>
+      </c>
+      <c r="M30" s="8">
+        <v>0</v>
+      </c>
+      <c r="N30" s="8">
+        <v>0</v>
+      </c>
+      <c r="O30" s="8">
+        <v>0</v>
+      </c>
+      <c r="P30" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>0</v>
+      </c>
+      <c r="R30" s="8">
+        <v>1</v>
+      </c>
+      <c r="S30" s="8">
+        <v>0</v>
+      </c>
+      <c r="T30" s="7" t="str">
         <f t="shared" si="1"/>
         <v>00000010</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B11" s="4">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>FFFFFFFF</v>
-      </c>
-      <c r="H11" s="7">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B31" s="4">
+        <v>27</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G31" s="6">
+        <v>80000000</v>
+      </c>
+      <c r="H31" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="7" t="str">
+        <v>80000002</v>
+      </c>
+      <c r="I31" s="7">
         <f t="shared" si="4"/>
-        <v>FFFFFFFF</v>
-      </c>
-      <c r="J11" s="7" t="str">
+        <v>2</v>
+      </c>
+      <c r="J31" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>80000002</v>
+      </c>
+      <c r="K31" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>1</v>
-      </c>
-      <c r="R11" s="8">
-        <v>0</v>
-      </c>
-      <c r="S11" s="7" t="str">
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0</v>
+      </c>
+      <c r="P31" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>0</v>
+      </c>
+      <c r="R31" s="8">
+        <v>1</v>
+      </c>
+      <c r="S31" s="8">
+        <v>0</v>
+      </c>
+      <c r="T31" s="7" t="str">
         <f t="shared" si="1"/>
         <v>00000010</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B12" s="4">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4" t="s">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B32" s="4">
+        <v>28</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>80000001</v>
-      </c>
-      <c r="G12" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>80000001</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="E32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="7" t="str">
+        <v>E</v>
+      </c>
+      <c r="I32" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>80000001</v>
-      </c>
-      <c r="J12" s="7" t="str">
+        <v>0E</v>
+      </c>
+      <c r="J32" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>E</v>
+      </c>
+      <c r="K32" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>1</v>
-      </c>
-      <c r="R12" s="8">
-        <v>0</v>
-      </c>
-      <c r="S12" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>00000010</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B13" s="4">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>80000000</v>
-      </c>
-      <c r="G13" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>80000000</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>80000000</v>
-      </c>
-      <c r="J13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>1</v>
-      </c>
-      <c r="R13" s="8">
-        <v>0</v>
-      </c>
-      <c r="S13" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>00000010</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I14" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>0</v>
-      </c>
-      <c r="R14" s="8">
-        <v>0</v>
-      </c>
-      <c r="S14" s="7" t="str">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0</v>
+      </c>
+      <c r="O32" s="8">
+        <v>0</v>
+      </c>
+      <c r="P32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>0</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0</v>
+      </c>
+      <c r="S32" s="8">
+        <v>0</v>
+      </c>
+      <c r="T32" s="7" t="str">
         <f t="shared" si="1"/>
         <v>00000000</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B15" s="4">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4" t="s">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B33" s="4">
+        <v>29</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I15" s="7" t="str">
+        <v>F</v>
+      </c>
+      <c r="I33" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J15" s="7" t="str">
+        <v>0E</v>
+      </c>
+      <c r="J33" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>F</v>
+      </c>
+      <c r="K33" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0</v>
-      </c>
-      <c r="M15" s="8">
-        <v>0</v>
-      </c>
-      <c r="N15" s="8">
-        <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <v>0</v>
-      </c>
-      <c r="P15" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>0</v>
-      </c>
-      <c r="R15" s="8">
-        <v>0</v>
-      </c>
-      <c r="S15" s="7" t="str">
+      <c r="L33" s="8">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8">
+        <v>0</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0</v>
+      </c>
+      <c r="O33" s="8">
+        <v>0</v>
+      </c>
+      <c r="P33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>0</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0</v>
+      </c>
+      <c r="S33" s="8">
+        <v>0</v>
+      </c>
+      <c r="T33" s="7" t="str">
         <f t="shared" si="1"/>
         <v>00000000</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B16" s="4">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="4" t="s">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B34" s="4">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E34" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G34" s="6">
         <v>2</v>
       </c>
-      <c r="G16" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="H34" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I16" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="I34" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J16" s="7" t="str">
+        <v>0E</v>
+      </c>
+      <c r="J34" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K34" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="8">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0</v>
-      </c>
-      <c r="M16" s="8">
-        <v>0</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
-        <v>0</v>
-      </c>
-      <c r="P16" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>0</v>
-      </c>
-      <c r="R16" s="8">
-        <v>0</v>
-      </c>
-      <c r="S16" s="7" t="str">
+      <c r="L34" s="8">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8">
+        <v>0</v>
+      </c>
+      <c r="N34" s="8">
+        <v>0</v>
+      </c>
+      <c r="O34" s="8">
+        <v>0</v>
+      </c>
+      <c r="P34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>0</v>
+      </c>
+      <c r="R34" s="8">
+        <v>0</v>
+      </c>
+      <c r="S34" s="8">
+        <v>0</v>
+      </c>
+      <c r="T34" s="7" t="str">
         <f t="shared" si="1"/>
         <v>00000000</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B17" s="4">
-        <v>13</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="4" t="s">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B35" s="4">
+        <v>31</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>7FFFFFFF</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="D35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I17" s="7" t="str">
+        <v>8000000C</v>
+      </c>
+      <c r="I35" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>7FFFFFFF</v>
-      </c>
-      <c r="J17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="M17" s="8">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
-        <v>0</v>
-      </c>
-      <c r="O17" s="8">
-        <v>0</v>
-      </c>
-      <c r="P17" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>0</v>
-      </c>
-      <c r="R17" s="8">
-        <v>0</v>
-      </c>
-      <c r="S17" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B18" s="4">
-        <v>14</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>80000000</v>
-      </c>
-      <c r="H18" s="7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I18" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>80000000</v>
-      </c>
-      <c r="J18" s="7" t="str">
+        <v>0E</v>
+      </c>
+      <c r="J35" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000C</v>
+      </c>
+      <c r="K35" s="7" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="8">
-        <v>0</v>
-      </c>
-      <c r="N18" s="8">
-        <v>0</v>
-      </c>
-      <c r="O18" s="8">
-        <v>0</v>
-      </c>
-      <c r="P18" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>1</v>
-      </c>
-      <c r="R18" s="8">
-        <v>0</v>
-      </c>
-      <c r="S18" s="7" t="str">
+      <c r="L35" s="8">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8">
+        <v>0</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0</v>
+      </c>
+      <c r="P35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>1</v>
+      </c>
+      <c r="R35" s="8">
+        <v>1</v>
+      </c>
+      <c r="S35" s="8">
+        <v>0</v>
+      </c>
+      <c r="T35" s="7" t="str">
         <f t="shared" si="1"/>
         <v>00000110</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B19" s="4">
-        <v>15</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>FFFFFFFF</v>
-      </c>
-      <c r="H19" s="7">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B36" s="4">
+        <v>32</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I19" s="7" t="str">
+        <v>8000000D</v>
+      </c>
+      <c r="I36" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>FFFFFFFF</v>
-      </c>
-      <c r="J19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K19" s="8">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8">
-        <v>0</v>
-      </c>
-      <c r="M19" s="8">
-        <v>0</v>
-      </c>
-      <c r="N19" s="8">
-        <v>0</v>
-      </c>
-      <c r="O19" s="8">
-        <v>0</v>
-      </c>
-      <c r="P19" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>1</v>
-      </c>
-      <c r="R19" s="8">
-        <v>0</v>
-      </c>
-      <c r="S19" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>00000010</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B20" s="4">
-        <v>16</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I20" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>100000000</v>
-      </c>
-      <c r="J20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="K20" s="8">
-        <v>0</v>
-      </c>
-      <c r="L20" s="8">
-        <v>0</v>
-      </c>
-      <c r="M20" s="8">
-        <v>0</v>
-      </c>
-      <c r="N20" s="8">
-        <v>0</v>
-      </c>
-      <c r="O20" s="8">
-        <v>1</v>
-      </c>
-      <c r="P20" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>0</v>
-      </c>
-      <c r="R20" s="8">
-        <v>1</v>
-      </c>
-      <c r="S20" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>00001001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B21" s="4">
-        <v>17</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
-        <v>80000001</v>
-      </c>
-      <c r="G21" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>80000002</v>
-      </c>
-      <c r="H21" s="7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I21" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>80000002</v>
-      </c>
-      <c r="J21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-      <c r="M21" s="8">
-        <v>0</v>
-      </c>
-      <c r="N21" s="8">
-        <v>0</v>
-      </c>
-      <c r="O21" s="8">
-        <v>0</v>
-      </c>
-      <c r="P21" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>1</v>
-      </c>
-      <c r="R21" s="8">
-        <v>0</v>
-      </c>
-      <c r="S21" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>00000010</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B22" s="4">
-        <v>18</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
-        <v>80000000</v>
-      </c>
-      <c r="G22" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>80000001</v>
-      </c>
-      <c r="H22" s="7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I22" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>80000001</v>
-      </c>
-      <c r="J22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K22" s="8">
-        <v>0</v>
-      </c>
-      <c r="L22" s="8">
-        <v>0</v>
-      </c>
-      <c r="M22" s="8">
-        <v>0</v>
-      </c>
-      <c r="N22" s="8">
-        <v>0</v>
-      </c>
-      <c r="O22" s="8">
-        <v>0</v>
-      </c>
-      <c r="P22" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>1</v>
-      </c>
-      <c r="R22" s="8">
-        <v>0</v>
-      </c>
-      <c r="S22" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>00000010</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B23" s="4">
-        <v>19</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H23" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I23" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="8">
-        <v>0</v>
-      </c>
-      <c r="L23" s="8">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8">
-        <v>0</v>
-      </c>
-      <c r="N23" s="8">
-        <v>0</v>
-      </c>
-      <c r="O23" s="8">
-        <v>0</v>
-      </c>
-      <c r="P23" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="8">
-        <v>0</v>
-      </c>
-      <c r="R23" s="8">
-        <v>0</v>
-      </c>
-      <c r="S23" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B24" s="4">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="4">
-        <v>2</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H24" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I24" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="8">
-        <v>0</v>
-      </c>
-      <c r="L24" s="8">
-        <v>0</v>
-      </c>
-      <c r="M24" s="8">
-        <v>0</v>
-      </c>
-      <c r="N24" s="8">
-        <v>0</v>
-      </c>
-      <c r="O24" s="8">
-        <v>0</v>
-      </c>
-      <c r="P24" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="8">
-        <v>0</v>
-      </c>
-      <c r="R24" s="8">
-        <v>0</v>
-      </c>
-      <c r="S24" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B25" s="4">
-        <v>21</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="4">
-        <v>2</v>
-      </c>
-      <c r="F25" s="6">
-        <v>2</v>
-      </c>
-      <c r="G25" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H25" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I25" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J25" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="8">
-        <v>0</v>
-      </c>
-      <c r="L25" s="8">
-        <v>0</v>
-      </c>
-      <c r="M25" s="8">
-        <v>0</v>
-      </c>
-      <c r="N25" s="8">
-        <v>0</v>
-      </c>
-      <c r="O25" s="8">
-        <v>0</v>
-      </c>
-      <c r="P25" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="8">
-        <v>0</v>
-      </c>
-      <c r="R25" s="8">
-        <v>0</v>
-      </c>
-      <c r="S25" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B26" s="4">
-        <v>22</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="4">
-        <v>2</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>80000000</v>
-      </c>
-      <c r="H26" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I26" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>80000000</v>
-      </c>
-      <c r="J26" s="7" t="str">
+        <v>0E</v>
+      </c>
+      <c r="J36" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>8000000D</v>
+      </c>
+      <c r="K36" s="7" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K26" s="8">
-        <v>0</v>
-      </c>
-      <c r="L26" s="8">
-        <v>0</v>
-      </c>
-      <c r="M26" s="8">
-        <v>0</v>
-      </c>
-      <c r="N26" s="8">
-        <v>0</v>
-      </c>
-      <c r="O26" s="8">
-        <v>0</v>
-      </c>
-      <c r="P26" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="8">
-        <v>1</v>
-      </c>
-      <c r="R26" s="8">
-        <v>0</v>
-      </c>
-      <c r="S26" s="7" t="str">
+      <c r="L36" s="8">
+        <v>0</v>
+      </c>
+      <c r="M36" s="8">
+        <v>0</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0</v>
+      </c>
+      <c r="P36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>1</v>
+      </c>
+      <c r="R36" s="8">
+        <v>1</v>
+      </c>
+      <c r="S36" s="8">
+        <v>0</v>
+      </c>
+      <c r="T36" s="7" t="str">
         <f t="shared" si="1"/>
         <v>00000110</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B27" s="4">
-        <v>23</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="4">
-        <v>2</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>80000001</v>
-      </c>
-      <c r="H27" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I27" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>80000001</v>
-      </c>
-      <c r="J27" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K27" s="8">
-        <v>0</v>
-      </c>
-      <c r="L27" s="8">
-        <v>0</v>
-      </c>
-      <c r="M27" s="8">
-        <v>0</v>
-      </c>
-      <c r="N27" s="8">
-        <v>0</v>
-      </c>
-      <c r="O27" s="8">
-        <v>0</v>
-      </c>
-      <c r="P27" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="8">
-        <v>1</v>
-      </c>
-      <c r="R27" s="8">
-        <v>0</v>
-      </c>
-      <c r="S27" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>00000110</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B28" s="4">
-        <v>24</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I28" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>100000000</v>
-      </c>
-      <c r="J28" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="K28" s="8">
-        <v>0</v>
-      </c>
-      <c r="L28" s="8">
-        <v>0</v>
-      </c>
-      <c r="M28" s="8">
-        <v>0</v>
-      </c>
-      <c r="N28" s="8">
-        <v>0</v>
-      </c>
-      <c r="O28" s="8">
-        <v>1</v>
-      </c>
-      <c r="P28" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="8">
-        <v>0</v>
-      </c>
-      <c r="R28" s="8">
-        <v>1</v>
-      </c>
-      <c r="S28" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>00001001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B29" s="4">
-        <v>25</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="7">
-        <v>1</v>
-      </c>
-      <c r="H29" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I29" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>100000001</v>
-      </c>
-      <c r="J29" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K29" s="8">
-        <v>0</v>
-      </c>
-      <c r="L29" s="8">
-        <v>0</v>
-      </c>
-      <c r="M29" s="8">
-        <v>0</v>
-      </c>
-      <c r="N29" s="8">
-        <v>0</v>
-      </c>
-      <c r="O29" s="8">
-        <v>1</v>
-      </c>
-      <c r="P29" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="8">
-        <v>0</v>
-      </c>
-      <c r="R29" s="8">
-        <v>0</v>
-      </c>
-      <c r="S29" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>00001000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B30" s="4">
-        <v>26</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="4">
-        <v>2</v>
-      </c>
-      <c r="F30" s="6">
-        <v>80000001</v>
-      </c>
-      <c r="G30" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>80000003</v>
-      </c>
-      <c r="H30" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I30" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>80000003</v>
-      </c>
-      <c r="J30" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K30" s="8">
-        <v>0</v>
-      </c>
-      <c r="L30" s="8">
-        <v>0</v>
-      </c>
-      <c r="M30" s="8">
-        <v>0</v>
-      </c>
-      <c r="N30" s="8">
-        <v>0</v>
-      </c>
-      <c r="O30" s="8">
-        <v>0</v>
-      </c>
-      <c r="P30" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="8">
-        <v>1</v>
-      </c>
-      <c r="R30" s="8">
-        <v>0</v>
-      </c>
-      <c r="S30" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>00000010</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B31" s="4">
-        <v>27</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="4">
-        <v>2</v>
-      </c>
-      <c r="F31" s="6">
-        <v>80000000</v>
-      </c>
-      <c r="G31" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>80000002</v>
-      </c>
-      <c r="H31" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I31" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>80000002</v>
-      </c>
-      <c r="J31" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K31" s="8">
-        <v>0</v>
-      </c>
-      <c r="L31" s="8">
-        <v>0</v>
-      </c>
-      <c r="M31" s="8">
-        <v>0</v>
-      </c>
-      <c r="N31" s="8">
-        <v>0</v>
-      </c>
-      <c r="O31" s="8">
-        <v>0</v>
-      </c>
-      <c r="P31" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="8">
-        <v>1</v>
-      </c>
-      <c r="R31" s="8">
-        <v>0</v>
-      </c>
-      <c r="S31" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>00000010</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B32" s="4">
-        <v>28</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="6">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>E</v>
-      </c>
-      <c r="H32" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0E</v>
-      </c>
-      <c r="I32" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>E</v>
-      </c>
-      <c r="J32" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="8">
-        <v>0</v>
-      </c>
-      <c r="L32" s="8">
-        <v>0</v>
-      </c>
-      <c r="M32" s="8">
-        <v>0</v>
-      </c>
-      <c r="N32" s="8">
-        <v>0</v>
-      </c>
-      <c r="O32" s="8">
-        <v>0</v>
-      </c>
-      <c r="P32" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="8">
-        <v>0</v>
-      </c>
-      <c r="R32" s="8">
-        <v>0</v>
-      </c>
-      <c r="S32" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B33" s="4">
-        <v>29</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" s="6">
-        <v>1</v>
-      </c>
-      <c r="G33" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="H33" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0E</v>
-      </c>
-      <c r="I33" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="J33" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="8">
-        <v>0</v>
-      </c>
-      <c r="L33" s="8">
-        <v>0</v>
-      </c>
-      <c r="M33" s="8">
-        <v>0</v>
-      </c>
-      <c r="N33" s="8">
-        <v>0</v>
-      </c>
-      <c r="O33" s="8">
-        <v>0</v>
-      </c>
-      <c r="P33" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="8">
-        <v>0</v>
-      </c>
-      <c r="R33" s="8">
-        <v>0</v>
-      </c>
-      <c r="S33" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B34" s="4">
-        <v>30</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" s="6">
-        <v>2</v>
-      </c>
-      <c r="G34" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H34" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0E</v>
-      </c>
-      <c r="I34" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="8">
-        <v>0</v>
-      </c>
-      <c r="L34" s="8">
-        <v>0</v>
-      </c>
-      <c r="M34" s="8">
-        <v>0</v>
-      </c>
-      <c r="N34" s="8">
-        <v>0</v>
-      </c>
-      <c r="O34" s="8">
-        <v>0</v>
-      </c>
-      <c r="P34" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="8">
-        <v>0</v>
-      </c>
-      <c r="R34" s="8">
-        <v>0</v>
-      </c>
-      <c r="S34" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B35" s="4">
-        <v>31</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>8000000C</v>
-      </c>
-      <c r="H35" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0E</v>
-      </c>
-      <c r="I35" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>8000000C</v>
-      </c>
-      <c r="J35" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K35" s="8">
-        <v>0</v>
-      </c>
-      <c r="L35" s="8">
-        <v>0</v>
-      </c>
-      <c r="M35" s="8">
-        <v>0</v>
-      </c>
-      <c r="N35" s="8">
-        <v>0</v>
-      </c>
-      <c r="O35" s="8">
-        <v>0</v>
-      </c>
-      <c r="P35" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="8">
-        <v>1</v>
-      </c>
-      <c r="R35" s="8">
-        <v>0</v>
-      </c>
-      <c r="S35" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>00000110</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B36" s="4">
-        <v>32</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>8000000D</v>
-      </c>
-      <c r="H36" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0E</v>
-      </c>
-      <c r="I36" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>8000000D</v>
-      </c>
-      <c r="J36" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K36" s="8">
-        <v>0</v>
-      </c>
-      <c r="L36" s="8">
-        <v>0</v>
-      </c>
-      <c r="M36" s="8">
-        <v>0</v>
-      </c>
-      <c r="N36" s="8">
-        <v>0</v>
-      </c>
-      <c r="O36" s="8">
-        <v>0</v>
-      </c>
-      <c r="P36" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="8">
-        <v>1</v>
-      </c>
-      <c r="R36" s="8">
-        <v>0</v>
-      </c>
-      <c r="S36" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>00000110</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
         <v>33</v>
       </c>
@@ -4824,27 +4989,28 @@
       <c r="E37" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="6">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H37" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0E</v>
+      <c r="H37" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="I37" s="7" t="str">
         <f t="shared" si="4"/>
+        <v>0E</v>
+      </c>
+      <c r="J37" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>10000000C</v>
       </c>
-      <c r="J37" s="7" t="str">
-        <f t="shared" ref="J37:J68" si="5">BIN2HEX(S37)</f>
+      <c r="K37" s="7" t="str">
+        <f t="shared" ref="K37:K68" si="7">BIN2HEX(T37)</f>
         <v>8</v>
       </c>
-      <c r="K37" s="8">
-        <v>0</v>
-      </c>
       <c r="L37" s="8">
         <v>0</v>
       </c>
@@ -4855,10 +5021,10 @@
         <v>0</v>
       </c>
       <c r="O37" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="8">
         <v>0</v>
@@ -4866,12 +5032,15 @@
       <c r="R37" s="8">
         <v>0</v>
       </c>
-      <c r="S37" s="7" t="str">
-        <f t="shared" ref="S37:S68" si="6">K37&amp;L37&amp;M37&amp;N37&amp;O37&amp;P37&amp;Q37&amp;R37</f>
+      <c r="S37" s="8">
+        <v>0</v>
+      </c>
+      <c r="T37" s="7" t="str">
+        <f t="shared" ref="T37:T68" si="8">L37&amp;M37&amp;N37&amp;O37&amp;P37&amp;Q37&amp;R37&amp;S37</f>
         <v>00001000</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
         <v>34</v>
       </c>
@@ -4884,27 +5053,28 @@
       <c r="E38" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="6">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H38" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0E</v>
+      <c r="H38" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="I38" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>10000000D</v>
+        <v>0E</v>
       </c>
       <c r="J38" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>10000000D</v>
+      </c>
+      <c r="K38" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="K38" s="8">
-        <v>0</v>
-      </c>
       <c r="L38" s="8">
         <v>0</v>
       </c>
@@ -4915,10 +5085,10 @@
         <v>0</v>
       </c>
       <c r="O38" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="8">
         <v>0</v>
@@ -4926,12 +5096,15 @@
       <c r="R38" s="8">
         <v>0</v>
       </c>
-      <c r="S38" s="7" t="str">
-        <f t="shared" si="6"/>
+      <c r="S38" s="8">
+        <v>0</v>
+      </c>
+      <c r="T38" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00001000</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>35</v>
       </c>
@@ -4945,27 +5118,28 @@
         <v>118</v>
       </c>
       <c r="F39" s="6">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G39" s="6">
         <v>80000001</v>
-      </c>
-      <c r="G39" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>8000000F</v>
       </c>
       <c r="H39" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>0E</v>
+        <v>8000000F</v>
       </c>
       <c r="I39" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>8000000F</v>
+        <v>0E</v>
       </c>
       <c r="J39" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>8000000F</v>
+      </c>
+      <c r="K39" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K39" s="8">
-        <v>0</v>
-      </c>
       <c r="L39" s="8">
         <v>0</v>
       </c>
@@ -4982,17 +5156,20 @@
         <v>0</v>
       </c>
       <c r="Q39" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="8">
-        <v>0</v>
-      </c>
-      <c r="S39" s="7" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S39" s="8">
+        <v>0</v>
+      </c>
+      <c r="T39" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00000010</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>36</v>
       </c>
@@ -5006,27 +5183,28 @@
         <v>118</v>
       </c>
       <c r="F40" s="6">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G40" s="6">
         <v>80000000</v>
-      </c>
-      <c r="G40" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>8000000E</v>
       </c>
       <c r="H40" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>0E</v>
+        <v>8000000E</v>
       </c>
       <c r="I40" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>8000000E</v>
+        <v>0E</v>
       </c>
       <c r="J40" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>8000000E</v>
+      </c>
+      <c r="K40" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K40" s="8">
-        <v>0</v>
-      </c>
       <c r="L40" s="8">
         <v>0</v>
       </c>
@@ -5043,17 +5221,20 @@
         <v>0</v>
       </c>
       <c r="Q40" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="8">
-        <v>0</v>
-      </c>
-      <c r="S40" s="7" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S40" s="8">
+        <v>0</v>
+      </c>
+      <c r="T40" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00000010</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
         <v>37</v>
       </c>
@@ -5067,25 +5248,26 @@
         <v>119</v>
       </c>
       <c r="F41" s="6">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
       </c>
       <c r="H41" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>0F</v>
+        <v>F</v>
       </c>
       <c r="I41" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>F</v>
+        <v>0F</v>
       </c>
       <c r="J41" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="8">
+        <v>F</v>
+      </c>
+      <c r="K41" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L41" s="8">
@@ -5109,12 +5291,15 @@
       <c r="R41" s="8">
         <v>0</v>
       </c>
-      <c r="S41" s="7" t="str">
-        <f t="shared" si="6"/>
+      <c r="S41" s="8">
+        <v>0</v>
+      </c>
+      <c r="T41" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B42" s="4">
         <v>38</v>
       </c>
@@ -5128,25 +5313,26 @@
         <v>119</v>
       </c>
       <c r="F42" s="6">
-        <v>1</v>
-      </c>
-      <c r="G42" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1</v>
       </c>
       <c r="H42" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>0F</v>
+        <v>10</v>
       </c>
       <c r="I42" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>0F</v>
       </c>
       <c r="J42" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="8">
+        <v>10</v>
+      </c>
+      <c r="K42" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L42" s="8">
@@ -5170,12 +5356,15 @@
       <c r="R42" s="8">
         <v>0</v>
       </c>
-      <c r="S42" s="7" t="str">
-        <f t="shared" si="6"/>
+      <c r="S42" s="8">
+        <v>0</v>
+      </c>
+      <c r="T42" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <v>39</v>
       </c>
@@ -5189,25 +5378,26 @@
         <v>119</v>
       </c>
       <c r="F43" s="6">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G43" s="6">
         <v>2</v>
-      </c>
-      <c r="G43" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>11</v>
       </c>
       <c r="H43" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>0F</v>
+        <v>11</v>
       </c>
       <c r="I43" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>0F</v>
       </c>
       <c r="J43" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="8">
+        <v>11</v>
+      </c>
+      <c r="K43" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L43" s="8">
@@ -5231,12 +5421,15 @@
       <c r="R43" s="8">
         <v>0</v>
       </c>
-      <c r="S43" s="7" t="str">
-        <f t="shared" si="6"/>
+      <c r="S43" s="8">
+        <v>0</v>
+      </c>
+      <c r="T43" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B44" s="4">
         <v>40</v>
       </c>
@@ -5249,28 +5442,29 @@
       <c r="E44" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G44" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>8000000D</v>
+      <c r="F44" s="6">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="H44" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>0F</v>
+        <v>8000000D</v>
       </c>
       <c r="I44" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>8000000D</v>
+        <v>0F</v>
       </c>
       <c r="J44" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>8000000D</v>
+      </c>
+      <c r="K44" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="K44" s="8">
-        <v>0</v>
-      </c>
       <c r="L44" s="8">
         <v>0</v>
       </c>
@@ -5284,20 +5478,23 @@
         <v>0</v>
       </c>
       <c r="P44" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="8">
         <v>1</v>
       </c>
       <c r="R44" s="8">
-        <v>0</v>
-      </c>
-      <c r="S44" s="7" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S44" s="8">
+        <v>0</v>
+      </c>
+      <c r="T44" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00000110</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B45" s="4">
         <v>41</v>
       </c>
@@ -5310,28 +5507,29 @@
       <c r="E45" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="6">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="G45" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>8000000E</v>
       </c>
       <c r="H45" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>0F</v>
+        <v>8000000E</v>
       </c>
       <c r="I45" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>8000000E</v>
+        <v>0F</v>
       </c>
       <c r="J45" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>8000000E</v>
+      </c>
+      <c r="K45" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="K45" s="8">
-        <v>0</v>
-      </c>
       <c r="L45" s="8">
         <v>0</v>
       </c>
@@ -5345,20 +5543,23 @@
         <v>0</v>
       </c>
       <c r="P45" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="8">
         <v>1</v>
       </c>
       <c r="R45" s="8">
-        <v>0</v>
-      </c>
-      <c r="S45" s="7" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S45" s="8">
+        <v>0</v>
+      </c>
+      <c r="T45" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00000110</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
         <v>42</v>
       </c>
@@ -5371,27 +5572,28 @@
       <c r="E46" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H46" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0F</v>
+      <c r="F46" s="6">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="I46" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>10000000D</v>
+        <v>0F</v>
       </c>
       <c r="J46" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>10000000D</v>
+      </c>
+      <c r="K46" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="K46" s="8">
-        <v>0</v>
-      </c>
       <c r="L46" s="8">
         <v>0</v>
       </c>
@@ -5402,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="O46" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="8">
         <v>0</v>
@@ -5413,12 +5615,15 @@
       <c r="R46" s="8">
         <v>0</v>
       </c>
-      <c r="S46" s="7" t="str">
-        <f t="shared" si="6"/>
+      <c r="S46" s="8">
+        <v>0</v>
+      </c>
+      <c r="T46" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00001000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B47" s="4">
         <v>43</v>
       </c>
@@ -5431,27 +5636,28 @@
       <c r="E47" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="6">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H47" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0F</v>
+      <c r="H47" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="I47" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>10000000E</v>
+        <v>0F</v>
       </c>
       <c r="J47" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>10000000E</v>
+      </c>
+      <c r="K47" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="K47" s="8">
-        <v>0</v>
-      </c>
       <c r="L47" s="8">
         <v>0</v>
       </c>
@@ -5462,10 +5668,10 @@
         <v>0</v>
       </c>
       <c r="O47" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="8">
         <v>0</v>
@@ -5473,12 +5679,15 @@
       <c r="R47" s="8">
         <v>0</v>
       </c>
-      <c r="S47" s="7" t="str">
-        <f t="shared" si="6"/>
+      <c r="S47" s="8">
+        <v>0</v>
+      </c>
+      <c r="T47" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00001000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B48" s="4">
         <v>44</v>
       </c>
@@ -5492,27 +5701,28 @@
         <v>119</v>
       </c>
       <c r="F48" s="6">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G48" s="6">
         <v>80000001</v>
-      </c>
-      <c r="G48" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>80000010</v>
       </c>
       <c r="H48" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>0F</v>
+        <v>80000010</v>
       </c>
       <c r="I48" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>80000010</v>
+        <v>0F</v>
       </c>
       <c r="J48" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>80000010</v>
+      </c>
+      <c r="K48" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K48" s="8">
-        <v>0</v>
-      </c>
       <c r="L48" s="8">
         <v>0</v>
       </c>
@@ -5529,17 +5739,20 @@
         <v>0</v>
       </c>
       <c r="Q48" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" s="8">
-        <v>0</v>
-      </c>
-      <c r="S48" s="7" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S48" s="8">
+        <v>0</v>
+      </c>
+      <c r="T48" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00000010</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
         <v>45</v>
       </c>
@@ -5553,27 +5766,28 @@
         <v>119</v>
       </c>
       <c r="F49" s="6">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G49" s="6">
         <v>80000000</v>
-      </c>
-      <c r="G49" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>8000000F</v>
       </c>
       <c r="H49" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>0F</v>
+        <v>8000000F</v>
       </c>
       <c r="I49" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>8000000F</v>
+        <v>0F</v>
       </c>
       <c r="J49" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>8000000F</v>
+      </c>
+      <c r="K49" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K49" s="8">
-        <v>0</v>
-      </c>
       <c r="L49" s="8">
         <v>0</v>
       </c>
@@ -5590,17 +5804,20 @@
         <v>0</v>
       </c>
       <c r="Q49" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" s="8">
-        <v>0</v>
-      </c>
-      <c r="S49" s="7" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S49" s="8">
+        <v>0</v>
+      </c>
+      <c r="T49" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00000010</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B50" s="4">
         <v>46</v>
       </c>
@@ -5614,26 +5831,26 @@
         <v>121</v>
       </c>
       <c r="F50" s="6">
-        <v>0</v>
-      </c>
-      <c r="G50" s="7" t="str">
-        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7" t="str">
+        <f t="shared" si="3"/>
         <v>FFFFFFFE</v>
       </c>
-      <c r="H50" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I50" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>FFFFFFFE</v>
+      <c r="I50" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="J50" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>FFFFFFFE</v>
+      </c>
+      <c r="K50" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K50" s="8">
-        <v>0</v>
-      </c>
       <c r="L50" s="8">
         <v>0</v>
       </c>
@@ -5650,17 +5867,20 @@
         <v>0</v>
       </c>
       <c r="Q50" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="8">
-        <v>0</v>
-      </c>
-      <c r="S50" s="7" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S50" s="8">
+        <v>0</v>
+      </c>
+      <c r="T50" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00000010</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
         <v>47</v>
       </c>
@@ -5674,26 +5894,26 @@
         <v>121</v>
       </c>
       <c r="F51" s="6">
-        <v>1</v>
-      </c>
-      <c r="G51" s="7" t="str">
-        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+      <c r="H51" s="7" t="str">
+        <f t="shared" si="3"/>
         <v>FFFFFFFF</v>
       </c>
-      <c r="H51" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I51" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>FFFFFFFF</v>
+      <c r="I51" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="J51" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>FFFFFFFF</v>
+      </c>
+      <c r="K51" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K51" s="8">
-        <v>0</v>
-      </c>
       <c r="L51" s="8">
         <v>0</v>
       </c>
@@ -5710,17 +5930,20 @@
         <v>0</v>
       </c>
       <c r="Q51" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" s="8">
-        <v>0</v>
-      </c>
-      <c r="S51" s="7" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S51" s="8">
+        <v>0</v>
+      </c>
+      <c r="T51" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00000010</v>
       </c>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
         <v>48</v>
       </c>
@@ -5734,24 +5957,24 @@
         <v>121</v>
       </c>
       <c r="F52" s="6">
+        <v>-2</v>
+      </c>
+      <c r="G52" s="6">
         <v>2</v>
       </c>
-      <c r="G52" s="7">
-        <v>0</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I52" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>100000000</v>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="J52" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="K52" s="8">
-        <v>0</v>
+        <v>100000000</v>
+      </c>
+      <c r="K52" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="L52" s="8">
         <v>0</v>
@@ -5763,10 +5986,10 @@
         <v>0</v>
       </c>
       <c r="O52" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="8">
         <v>0</v>
@@ -5774,12 +5997,15 @@
       <c r="R52" s="8">
         <v>0</v>
       </c>
-      <c r="S52" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>00001000</v>
-      </c>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="S52" s="8">
+        <v>1</v>
+      </c>
+      <c r="T52" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>00001001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
         <v>49</v>
       </c>
@@ -5792,26 +6018,26 @@
       <c r="E53" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="6">
+        <v>-2</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="H53" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I53" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>17FFFFFFC</v>
+        <v>138</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="J53" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>17FFFFFFC</v>
+      </c>
+      <c r="K53" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="K53" s="8">
-        <v>0</v>
-      </c>
       <c r="L53" s="8">
         <v>0</v>
       </c>
@@ -5822,10 +6048,10 @@
         <v>0</v>
       </c>
       <c r="O53" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="8">
         <v>0</v>
@@ -5833,12 +6059,15 @@
       <c r="R53" s="8">
         <v>0</v>
       </c>
-      <c r="S53" s="7" t="str">
-        <f t="shared" si="6"/>
+      <c r="S53" s="8">
+        <v>0</v>
+      </c>
+      <c r="T53" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00001000</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
         <v>50</v>
       </c>
@@ -5851,26 +6080,26 @@
       <c r="E54" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="6">
+        <v>-2</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="H54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I54" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>17FFFFFFD</v>
+        <v>139</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="J54" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>17FFFFFFD</v>
+      </c>
+      <c r="K54" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="K54" s="8">
-        <v>0</v>
-      </c>
       <c r="L54" s="8">
         <v>0</v>
       </c>
@@ -5881,10 +6110,10 @@
         <v>0</v>
       </c>
       <c r="O54" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="8">
         <v>0</v>
@@ -5892,12 +6121,15 @@
       <c r="R54" s="8">
         <v>0</v>
       </c>
-      <c r="S54" s="7" t="str">
-        <f t="shared" si="6"/>
+      <c r="S54" s="8">
+        <v>0</v>
+      </c>
+      <c r="T54" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00001000</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B55" s="4">
         <v>51</v>
       </c>
@@ -5910,25 +6142,25 @@
       <c r="E55" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="6">
+        <v>-2</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G55" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="H55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I55" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>1FFFFFFFC</v>
+        <v>153</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="J55" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="K55" s="8">
-        <v>0</v>
+        <v>1FFFFFFFC</v>
+      </c>
+      <c r="K55" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
       </c>
       <c r="L55" s="8">
         <v>0</v>
@@ -5940,23 +6172,26 @@
         <v>0</v>
       </c>
       <c r="O55" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="8">
         <v>0</v>
       </c>
       <c r="R55" s="8">
-        <v>0</v>
-      </c>
-      <c r="S55" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>00001000</v>
-      </c>
-    </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="S55" s="8">
+        <v>0</v>
+      </c>
+      <c r="T55" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>00001010</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B56" s="4">
         <v>52</v>
       </c>
@@ -5969,25 +6204,25 @@
       <c r="E56" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>140</v>
+      <c r="F56" s="6">
+        <v>-2</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I56" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>1FFFFFFFD</v>
+        <v>154</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="J56" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="K56" s="8">
-        <v>0</v>
+        <v>1FFFFFFFD</v>
+      </c>
+      <c r="K56" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
       </c>
       <c r="L56" s="8">
         <v>0</v>
@@ -5999,23 +6234,26 @@
         <v>0</v>
       </c>
       <c r="O56" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="8">
         <v>0</v>
       </c>
       <c r="R56" s="8">
-        <v>0</v>
-      </c>
-      <c r="S56" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>00001000</v>
-      </c>
-    </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="S56" s="8">
+        <v>0</v>
+      </c>
+      <c r="T56" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>00001010</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B57" s="4">
         <v>53</v>
       </c>
@@ -6029,25 +6267,25 @@
         <v>121</v>
       </c>
       <c r="F57" s="6">
+        <v>-2</v>
+      </c>
+      <c r="G57" s="6">
         <v>80000001</v>
       </c>
-      <c r="G57" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="H57" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I57" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>17FFFFFFF</v>
+        <v>140</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="J57" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>17FFFFFFF</v>
+      </c>
+      <c r="K57" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>C</v>
       </c>
-      <c r="K57" s="8">
-        <v>0</v>
-      </c>
       <c r="L57" s="8">
         <v>0</v>
       </c>
@@ -6058,23 +6296,26 @@
         <v>0</v>
       </c>
       <c r="O57" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" s="8">
         <v>1</v>
       </c>
       <c r="Q57" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="8">
         <v>0</v>
       </c>
-      <c r="S57" s="7" t="str">
-        <f t="shared" si="6"/>
+      <c r="S57" s="8">
+        <v>0</v>
+      </c>
+      <c r="T57" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00001100</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B58" s="4">
         <v>54</v>
       </c>
@@ -6088,25 +6329,25 @@
         <v>121</v>
       </c>
       <c r="F58" s="6">
+        <v>-2</v>
+      </c>
+      <c r="G58" s="6">
         <v>80000000</v>
       </c>
-      <c r="G58" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="H58" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I58" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>17FFFFFFE</v>
+        <v>141</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="J58" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>17FFFFFFE</v>
+      </c>
+      <c r="K58" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>C</v>
       </c>
-      <c r="K58" s="8">
-        <v>0</v>
-      </c>
       <c r="L58" s="8">
         <v>0</v>
       </c>
@@ -6117,23 +6358,26 @@
         <v>0</v>
       </c>
       <c r="O58" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" s="8">
         <v>1</v>
       </c>
       <c r="Q58" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="8">
         <v>0</v>
       </c>
-      <c r="S58" s="7" t="str">
-        <f t="shared" si="6"/>
+      <c r="S58" s="8">
+        <v>0</v>
+      </c>
+      <c r="T58" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00001100</v>
       </c>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B59" s="4">
         <v>55</v>
       </c>
@@ -6147,26 +6391,26 @@
         <v>122</v>
       </c>
       <c r="F59" s="6">
-        <v>0</v>
-      </c>
-      <c r="G59" s="7" t="str">
-        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7" t="str">
+        <f t="shared" si="3"/>
         <v>FFFFFFFF</v>
       </c>
-      <c r="H59" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I59" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>FFFFFFFF</v>
+      <c r="I59" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="J59" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>FFFFFFFF</v>
+      </c>
+      <c r="K59" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K59" s="8">
-        <v>0</v>
-      </c>
       <c r="L59" s="8">
         <v>0</v>
       </c>
@@ -6183,17 +6427,20 @@
         <v>0</v>
       </c>
       <c r="Q59" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" s="8">
-        <v>0</v>
-      </c>
-      <c r="S59" s="7" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S59" s="8">
+        <v>0</v>
+      </c>
+      <c r="T59" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00000010</v>
       </c>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B60" s="4">
         <v>56</v>
       </c>
@@ -6207,25 +6454,25 @@
         <v>122</v>
       </c>
       <c r="F60" s="6">
-        <v>1</v>
-      </c>
-      <c r="G60" s="7">
-        <v>0</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I60" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>100000000</v>
+        <v>-1</v>
+      </c>
+      <c r="G60" s="6">
+        <v>1</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="J60" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>100000000</v>
+      </c>
+      <c r="K60" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="K60" s="8">
-        <v>0</v>
-      </c>
       <c r="L60" s="8">
         <v>0</v>
       </c>
@@ -6236,23 +6483,26 @@
         <v>0</v>
       </c>
       <c r="O60" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="8">
         <v>0</v>
       </c>
       <c r="R60" s="8">
-        <v>1</v>
-      </c>
-      <c r="S60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="8">
+        <v>1</v>
+      </c>
+      <c r="T60" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00001001</v>
       </c>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B61" s="4">
         <v>57</v>
       </c>
@@ -6266,25 +6516,25 @@
         <v>122</v>
       </c>
       <c r="F61" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G61" s="6">
         <v>2</v>
       </c>
-      <c r="G61" s="7">
-        <v>1</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I61" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>100000001</v>
+      <c r="H61" s="7">
+        <v>1</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="J61" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>100000001</v>
+      </c>
+      <c r="K61" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="K61" s="8">
-        <v>0</v>
-      </c>
       <c r="L61" s="8">
         <v>0</v>
       </c>
@@ -6295,10 +6545,10 @@
         <v>0</v>
       </c>
       <c r="O61" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="8">
         <v>0</v>
@@ -6306,12 +6556,15 @@
       <c r="R61" s="8">
         <v>0</v>
       </c>
-      <c r="S61" s="7" t="str">
-        <f t="shared" si="6"/>
+      <c r="S61" s="8">
+        <v>0</v>
+      </c>
+      <c r="T61" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00001000</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B62" s="4">
         <v>58</v>
       </c>
@@ -6324,26 +6577,26 @@
       <c r="E62" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G62" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G62" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="H62" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I62" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>17FFFFFFD</v>
+        <v>139</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="J62" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>17FFFFFFD</v>
+      </c>
+      <c r="K62" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="K62" s="8">
-        <v>0</v>
-      </c>
       <c r="L62" s="8">
         <v>0</v>
       </c>
@@ -6354,10 +6607,10 @@
         <v>0</v>
       </c>
       <c r="O62" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="8">
         <v>0</v>
@@ -6365,12 +6618,15 @@
       <c r="R62" s="8">
         <v>0</v>
       </c>
-      <c r="S62" s="7" t="str">
-        <f t="shared" si="6"/>
+      <c r="S62" s="8">
+        <v>0</v>
+      </c>
+      <c r="T62" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00001000</v>
       </c>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B63" s="4">
         <v>59</v>
       </c>
@@ -6383,26 +6639,26 @@
       <c r="E63" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G63" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="H63" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I63" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>17FFFFFFE</v>
+        <v>141</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="J63" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>17FFFFFFE</v>
+      </c>
+      <c r="K63" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="K63" s="8">
-        <v>0</v>
-      </c>
       <c r="L63" s="8">
         <v>0</v>
       </c>
@@ -6413,10 +6669,10 @@
         <v>0</v>
       </c>
       <c r="O63" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="8">
         <v>0</v>
@@ -6424,12 +6680,15 @@
       <c r="R63" s="8">
         <v>0</v>
       </c>
-      <c r="S63" s="7" t="str">
-        <f t="shared" si="6"/>
+      <c r="S63" s="8">
+        <v>0</v>
+      </c>
+      <c r="T63" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00001000</v>
       </c>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B64" s="4">
         <v>60</v>
       </c>
@@ -6442,25 +6701,25 @@
       <c r="E64" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G64" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="H64" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I64" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>1FFFFFFFD</v>
+        <v>154</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="J64" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="K64" s="8">
-        <v>0</v>
+        <v>1FFFFFFFD</v>
+      </c>
+      <c r="K64" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
       </c>
       <c r="L64" s="8">
         <v>0</v>
@@ -6472,23 +6731,26 @@
         <v>0</v>
       </c>
       <c r="O64" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64" s="8">
         <v>0</v>
       </c>
       <c r="R64" s="8">
-        <v>0</v>
-      </c>
-      <c r="S64" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>00001000</v>
-      </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="S64" s="8">
+        <v>0</v>
+      </c>
+      <c r="T64" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>00001010</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B65" s="4">
         <v>61</v>
       </c>
@@ -6501,26 +6763,26 @@
       <c r="E65" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I65" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I65" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>1FFFFFFFE</v>
       </c>
       <c r="J65" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>1FFFFFFFE</v>
+      </c>
+      <c r="K65" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>A</v>
       </c>
-      <c r="K65" s="8">
-        <v>0</v>
-      </c>
       <c r="L65" s="8">
         <v>0</v>
       </c>
@@ -6531,23 +6793,26 @@
         <v>0</v>
       </c>
       <c r="O65" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" s="8">
-        <v>0</v>
-      </c>
-      <c r="S65" s="7" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S65" s="8">
+        <v>0</v>
+      </c>
+      <c r="T65" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00001010</v>
       </c>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B66" s="4">
         <v>62</v>
       </c>
@@ -6561,25 +6826,25 @@
         <v>122</v>
       </c>
       <c r="F66" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G66" s="6">
         <v>80000001</v>
       </c>
-      <c r="G66" s="7">
+      <c r="H66" s="7">
         <v>80000000</v>
       </c>
-      <c r="H66" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I66" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>180000000</v>
+      <c r="I66" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="J66" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>180000000</v>
+      </c>
+      <c r="K66" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>A</v>
       </c>
-      <c r="K66" s="8">
-        <v>0</v>
-      </c>
       <c r="L66" s="8">
         <v>0</v>
       </c>
@@ -6590,23 +6855,26 @@
         <v>0</v>
       </c>
       <c r="O66" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" s="8">
-        <v>0</v>
-      </c>
-      <c r="S66" s="7" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S66" s="8">
+        <v>0</v>
+      </c>
+      <c r="T66" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00001010</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B67" s="4">
         <v>63</v>
       </c>
@@ -6620,25 +6888,25 @@
         <v>122</v>
       </c>
       <c r="F67" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G67" s="6">
         <v>80000000</v>
       </c>
-      <c r="G67" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="H67" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I67" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>17FFFFFFF</v>
+        <v>140</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="J67" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>17FFFFFFF</v>
+      </c>
+      <c r="K67" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>C</v>
       </c>
-      <c r="K67" s="8">
-        <v>0</v>
-      </c>
       <c r="L67" s="8">
         <v>0</v>
       </c>
@@ -6649,23 +6917,26 @@
         <v>0</v>
       </c>
       <c r="O67" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" s="8">
         <v>1</v>
       </c>
       <c r="Q67" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" s="8">
         <v>0</v>
       </c>
-      <c r="S67" s="7" t="str">
-        <f t="shared" si="6"/>
+      <c r="S67" s="8">
+        <v>0</v>
+      </c>
+      <c r="T67" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00001100</v>
       </c>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B68" s="4">
         <v>64</v>
       </c>
@@ -6679,26 +6950,26 @@
         <v>11</v>
       </c>
       <c r="F68" s="6">
-        <v>0</v>
-      </c>
-      <c r="G68" s="7" t="str">
-        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7" t="str">
+        <f t="shared" si="3"/>
         <v>FFFFFFF1</v>
       </c>
-      <c r="H68" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I68" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>FFFFFFF1</v>
+      <c r="I68" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="J68" s="7" t="str">
         <f t="shared" si="5"/>
+        <v>FFFFFFF1</v>
+      </c>
+      <c r="K68" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K68" s="8">
-        <v>0</v>
-      </c>
       <c r="L68" s="8">
         <v>0</v>
       </c>
@@ -6715,17 +6986,20 @@
         <v>0</v>
       </c>
       <c r="Q68" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="8">
-        <v>0</v>
-      </c>
-      <c r="S68" s="7" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S68" s="8">
+        <v>0</v>
+      </c>
+      <c r="T68" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>00000010</v>
       </c>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B69" s="4">
         <v>65</v>
       </c>
@@ -6739,26 +7013,26 @@
         <v>11</v>
       </c>
       <c r="F69" s="6">
-        <v>1</v>
-      </c>
-      <c r="G69" s="7" t="str">
-        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1</v>
+      </c>
+      <c r="H69" s="7" t="str">
+        <f t="shared" si="3"/>
         <v>FFFFFFF2</v>
       </c>
-      <c r="H69" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I69" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="I69" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J69" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>FFFFFFF2</v>
       </c>
-      <c r="J69" s="7" t="str">
-        <f t="shared" ref="J69:J85" si="7">BIN2HEX(S69)</f>
+      <c r="K69" s="7" t="str">
+        <f t="shared" ref="K69:K85" si="9">BIN2HEX(T69)</f>
         <v>2</v>
       </c>
-      <c r="K69" s="8">
-        <v>0</v>
-      </c>
       <c r="L69" s="8">
         <v>0</v>
       </c>
@@ -6775,17 +7049,20 @@
         <v>0</v>
       </c>
       <c r="Q69" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R69" s="8">
-        <v>0</v>
-      </c>
-      <c r="S69" s="7" t="str">
-        <f t="shared" ref="S69:S85" si="8">K69&amp;L69&amp;M69&amp;N69&amp;O69&amp;P69&amp;Q69&amp;R69</f>
+        <v>1</v>
+      </c>
+      <c r="S69" s="8">
+        <v>0</v>
+      </c>
+      <c r="T69" s="7" t="str">
+        <f t="shared" ref="T69:T85" si="10">L69&amp;M69&amp;N69&amp;O69&amp;P69&amp;Q69&amp;R69&amp;S69</f>
         <v>00000010</v>
       </c>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B70" s="4">
         <v>66</v>
       </c>
@@ -6799,26 +7076,26 @@
         <v>11</v>
       </c>
       <c r="F70" s="6">
+        <v>-15</v>
+      </c>
+      <c r="G70" s="6">
         <v>2</v>
       </c>
-      <c r="G70" s="7" t="str">
-        <f t="shared" ref="G70:G85" si="9">I70</f>
+      <c r="H70" s="7" t="str">
+        <f t="shared" ref="H70:H79" si="11">J70</f>
         <v>FFFFFFF3</v>
       </c>
-      <c r="H70" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I70" s="7" t="str">
-        <f t="shared" ref="I70:I85" si="10">DEC2HEX(HEX2DEC(H70)+HEX2DEC(F70))</f>
+      <c r="I70" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J70" s="7" t="str">
+        <f t="shared" ref="J70:J85" si="12">DEC2HEX(HEX2DEC(I70)+HEX2DEC(G70))</f>
         <v>FFFFFFF3</v>
       </c>
-      <c r="J70" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="K70" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="K70" s="8">
-        <v>0</v>
-      </c>
       <c r="L70" s="8">
         <v>0</v>
       </c>
@@ -6835,17 +7112,20 @@
         <v>0</v>
       </c>
       <c r="Q70" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" s="8">
-        <v>0</v>
-      </c>
-      <c r="S70" s="7" t="str">
-        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S70" s="8">
+        <v>0</v>
+      </c>
+      <c r="T70" s="7" t="str">
+        <f t="shared" si="10"/>
         <v>00000010</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B71" s="4">
         <v>67</v>
       </c>
@@ -6858,53 +7138,56 @@
       <c r="E71" s="6">
         <v>11</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F71" s="6">
+        <v>-15</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G71" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="H71" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I71" s="7" t="str">
+        <v>143</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J71" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>17FFFFFEF</v>
+      </c>
+      <c r="K71" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="L71" s="8">
+        <v>0</v>
+      </c>
+      <c r="M71" s="8">
+        <v>0</v>
+      </c>
+      <c r="N71" s="8">
+        <v>0</v>
+      </c>
+      <c r="O71" s="8">
+        <v>0</v>
+      </c>
+      <c r="P71" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="8">
+        <v>0</v>
+      </c>
+      <c r="R71" s="8">
+        <v>0</v>
+      </c>
+      <c r="S71" s="8">
+        <v>0</v>
+      </c>
+      <c r="T71" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>17FFFFFEF</v>
-      </c>
-      <c r="J71" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="K71" s="8">
-        <v>0</v>
-      </c>
-      <c r="L71" s="8">
-        <v>0</v>
-      </c>
-      <c r="M71" s="8">
-        <v>0</v>
-      </c>
-      <c r="N71" s="8">
-        <v>0</v>
-      </c>
-      <c r="O71" s="8">
-        <v>1</v>
-      </c>
-      <c r="P71" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="8">
-        <v>0</v>
-      </c>
-      <c r="R71" s="8">
-        <v>0</v>
-      </c>
-      <c r="S71" s="7" t="str">
-        <f t="shared" si="8"/>
         <v>00001000</v>
       </c>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B72" s="4">
         <v>68</v>
       </c>
@@ -6917,53 +7200,56 @@
       <c r="E72" s="6">
         <v>11</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F72" s="6">
+        <v>-15</v>
+      </c>
+      <c r="G72" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G72" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="H72" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I72" s="7" t="str">
+        <v>144</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J72" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>17FFFFFF0</v>
+      </c>
+      <c r="K72" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="L72" s="8">
+        <v>0</v>
+      </c>
+      <c r="M72" s="8">
+        <v>0</v>
+      </c>
+      <c r="N72" s="8">
+        <v>0</v>
+      </c>
+      <c r="O72" s="8">
+        <v>0</v>
+      </c>
+      <c r="P72" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="8">
+        <v>0</v>
+      </c>
+      <c r="R72" s="8">
+        <v>0</v>
+      </c>
+      <c r="S72" s="8">
+        <v>0</v>
+      </c>
+      <c r="T72" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>17FFFFFF0</v>
-      </c>
-      <c r="J72" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="K72" s="8">
-        <v>0</v>
-      </c>
-      <c r="L72" s="8">
-        <v>0</v>
-      </c>
-      <c r="M72" s="8">
-        <v>0</v>
-      </c>
-      <c r="N72" s="8">
-        <v>0</v>
-      </c>
-      <c r="O72" s="8">
-        <v>1</v>
-      </c>
-      <c r="P72" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="8">
-        <v>0</v>
-      </c>
-      <c r="R72" s="8">
-        <v>0</v>
-      </c>
-      <c r="S72" s="7" t="str">
-        <f t="shared" si="8"/>
         <v>00001000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B73" s="4">
         <v>69</v>
       </c>
@@ -6976,53 +7262,56 @@
       <c r="E73" s="6">
         <v>11</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F73" s="6">
+        <v>-15</v>
+      </c>
+      <c r="G73" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G73" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="H73" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I73" s="7" t="str">
+        <v>145</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J73" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>1FFFFFFEF</v>
+      </c>
+      <c r="K73" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="L73" s="8">
+        <v>0</v>
+      </c>
+      <c r="M73" s="8">
+        <v>0</v>
+      </c>
+      <c r="N73" s="8">
+        <v>0</v>
+      </c>
+      <c r="O73" s="8">
+        <v>0</v>
+      </c>
+      <c r="P73" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="8">
+        <v>0</v>
+      </c>
+      <c r="R73" s="8">
+        <v>1</v>
+      </c>
+      <c r="S73" s="8">
+        <v>0</v>
+      </c>
+      <c r="T73" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>1FFFFFFEF</v>
-      </c>
-      <c r="J73" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="K73" s="8">
-        <v>0</v>
-      </c>
-      <c r="L73" s="8">
-        <v>0</v>
-      </c>
-      <c r="M73" s="8">
-        <v>0</v>
-      </c>
-      <c r="N73" s="8">
-        <v>0</v>
-      </c>
-      <c r="O73" s="8">
-        <v>1</v>
-      </c>
-      <c r="P73" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="8">
-        <v>1</v>
-      </c>
-      <c r="R73" s="8">
-        <v>0</v>
-      </c>
-      <c r="S73" s="7" t="str">
-        <f t="shared" si="8"/>
         <v>00001010</v>
       </c>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B74" s="4">
         <v>70</v>
       </c>
@@ -7035,53 +7324,56 @@
       <c r="E74" s="6">
         <v>11</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F74" s="6">
+        <v>-15</v>
+      </c>
+      <c r="G74" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="I74" s="7" t="str">
+      <c r="I74" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J74" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>1FFFFFFF0</v>
+      </c>
+      <c r="K74" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="L74" s="8">
+        <v>0</v>
+      </c>
+      <c r="M74" s="8">
+        <v>0</v>
+      </c>
+      <c r="N74" s="8">
+        <v>0</v>
+      </c>
+      <c r="O74" s="8">
+        <v>0</v>
+      </c>
+      <c r="P74" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="8">
+        <v>0</v>
+      </c>
+      <c r="R74" s="8">
+        <v>1</v>
+      </c>
+      <c r="S74" s="8">
+        <v>0</v>
+      </c>
+      <c r="T74" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>1FFFFFFF0</v>
-      </c>
-      <c r="J74" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="K74" s="8">
-        <v>0</v>
-      </c>
-      <c r="L74" s="8">
-        <v>0</v>
-      </c>
-      <c r="M74" s="8">
-        <v>0</v>
-      </c>
-      <c r="N74" s="8">
-        <v>0</v>
-      </c>
-      <c r="O74" s="8">
-        <v>1</v>
-      </c>
-      <c r="P74" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="8">
-        <v>1</v>
-      </c>
-      <c r="R74" s="8">
-        <v>0</v>
-      </c>
-      <c r="S74" s="7" t="str">
-        <f t="shared" si="8"/>
         <v>00001010</v>
       </c>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B75" s="4">
         <v>71</v>
       </c>
@@ -7095,52 +7387,55 @@
         <v>11</v>
       </c>
       <c r="F75" s="6">
+        <v>-15</v>
+      </c>
+      <c r="G75" s="6">
         <v>80000001</v>
       </c>
-      <c r="G75" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="H75" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I75" s="7" t="str">
+        <v>146</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J75" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>17FFFFFF2</v>
+      </c>
+      <c r="K75" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="L75" s="8">
+        <v>0</v>
+      </c>
+      <c r="M75" s="8">
+        <v>0</v>
+      </c>
+      <c r="N75" s="8">
+        <v>0</v>
+      </c>
+      <c r="O75" s="8">
+        <v>0</v>
+      </c>
+      <c r="P75" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="8">
+        <v>1</v>
+      </c>
+      <c r="R75" s="8">
+        <v>0</v>
+      </c>
+      <c r="S75" s="8">
+        <v>0</v>
+      </c>
+      <c r="T75" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>17FFFFFF2</v>
-      </c>
-      <c r="J75" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>C</v>
-      </c>
-      <c r="K75" s="8">
-        <v>0</v>
-      </c>
-      <c r="L75" s="8">
-        <v>0</v>
-      </c>
-      <c r="M75" s="8">
-        <v>0</v>
-      </c>
-      <c r="N75" s="8">
-        <v>0</v>
-      </c>
-      <c r="O75" s="8">
-        <v>1</v>
-      </c>
-      <c r="P75" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="8">
-        <v>0</v>
-      </c>
-      <c r="R75" s="8">
-        <v>0</v>
-      </c>
-      <c r="S75" s="7" t="str">
-        <f t="shared" si="8"/>
         <v>00001100</v>
       </c>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B76" s="4">
         <v>72</v>
       </c>
@@ -7154,52 +7449,55 @@
         <v>11</v>
       </c>
       <c r="F76" s="6">
+        <v>-15</v>
+      </c>
+      <c r="G76" s="6">
         <v>80000000</v>
       </c>
-      <c r="G76" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="H76" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I76" s="7" t="str">
+        <v>147</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J76" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>17FFFFFF1</v>
+      </c>
+      <c r="K76" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="L76" s="8">
+        <v>0</v>
+      </c>
+      <c r="M76" s="8">
+        <v>0</v>
+      </c>
+      <c r="N76" s="8">
+        <v>0</v>
+      </c>
+      <c r="O76" s="8">
+        <v>0</v>
+      </c>
+      <c r="P76" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="8">
+        <v>1</v>
+      </c>
+      <c r="R76" s="8">
+        <v>0</v>
+      </c>
+      <c r="S76" s="8">
+        <v>0</v>
+      </c>
+      <c r="T76" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>17FFFFFF1</v>
-      </c>
-      <c r="J76" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>C</v>
-      </c>
-      <c r="K76" s="8">
-        <v>0</v>
-      </c>
-      <c r="L76" s="8">
-        <v>0</v>
-      </c>
-      <c r="M76" s="8">
-        <v>0</v>
-      </c>
-      <c r="N76" s="8">
-        <v>0</v>
-      </c>
-      <c r="O76" s="8">
-        <v>1</v>
-      </c>
-      <c r="P76" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="8">
-        <v>0</v>
-      </c>
-      <c r="R76" s="8">
-        <v>0</v>
-      </c>
-      <c r="S76" s="7" t="str">
-        <f t="shared" si="8"/>
         <v>00001100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B77" s="4">
         <v>73</v>
       </c>
@@ -7213,53 +7511,56 @@
         <v>10</v>
       </c>
       <c r="F77" s="6">
-        <v>0</v>
-      </c>
-      <c r="G77" s="7" t="str">
+        <v>-16</v>
+      </c>
+      <c r="G77" s="6">
+        <v>0</v>
+      </c>
+      <c r="H77" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>FFFFFFF0</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J77" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>FFFFFFF0</v>
+      </c>
+      <c r="K77" s="7" t="str">
         <f t="shared" si="9"/>
-        <v>FFFFFFF0</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I77" s="7" t="str">
+        <v>2</v>
+      </c>
+      <c r="L77" s="8">
+        <v>0</v>
+      </c>
+      <c r="M77" s="8">
+        <v>0</v>
+      </c>
+      <c r="N77" s="8">
+        <v>0</v>
+      </c>
+      <c r="O77" s="8">
+        <v>0</v>
+      </c>
+      <c r="P77" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="8">
+        <v>0</v>
+      </c>
+      <c r="R77" s="8">
+        <v>1</v>
+      </c>
+      <c r="S77" s="8">
+        <v>0</v>
+      </c>
+      <c r="T77" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>FFFFFFF0</v>
-      </c>
-      <c r="J77" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="K77" s="8">
-        <v>0</v>
-      </c>
-      <c r="L77" s="8">
-        <v>0</v>
-      </c>
-      <c r="M77" s="8">
-        <v>0</v>
-      </c>
-      <c r="N77" s="8">
-        <v>0</v>
-      </c>
-      <c r="O77" s="8">
-        <v>0</v>
-      </c>
-      <c r="P77" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="8">
-        <v>1</v>
-      </c>
-      <c r="R77" s="8">
-        <v>0</v>
-      </c>
-      <c r="S77" s="7" t="str">
-        <f t="shared" si="8"/>
         <v>00000010</v>
       </c>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B78" s="4">
         <v>74</v>
       </c>
@@ -7273,53 +7574,56 @@
         <v>10</v>
       </c>
       <c r="F78" s="6">
-        <v>1</v>
-      </c>
-      <c r="G78" s="7" t="str">
+        <v>-16</v>
+      </c>
+      <c r="G78" s="6">
+        <v>1</v>
+      </c>
+      <c r="H78" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>FFFFFFF1</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J78" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>FFFFFFF1</v>
+      </c>
+      <c r="K78" s="7" t="str">
         <f t="shared" si="9"/>
-        <v>FFFFFFF1</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I78" s="7" t="str">
+        <v>2</v>
+      </c>
+      <c r="L78" s="8">
+        <v>0</v>
+      </c>
+      <c r="M78" s="8">
+        <v>0</v>
+      </c>
+      <c r="N78" s="8">
+        <v>0</v>
+      </c>
+      <c r="O78" s="8">
+        <v>0</v>
+      </c>
+      <c r="P78" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="8">
+        <v>0</v>
+      </c>
+      <c r="R78" s="8">
+        <v>1</v>
+      </c>
+      <c r="S78" s="8">
+        <v>0</v>
+      </c>
+      <c r="T78" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>FFFFFFF1</v>
-      </c>
-      <c r="J78" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="K78" s="8">
-        <v>0</v>
-      </c>
-      <c r="L78" s="8">
-        <v>0</v>
-      </c>
-      <c r="M78" s="8">
-        <v>0</v>
-      </c>
-      <c r="N78" s="8">
-        <v>0</v>
-      </c>
-      <c r="O78" s="8">
-        <v>0</v>
-      </c>
-      <c r="P78" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="8">
-        <v>1</v>
-      </c>
-      <c r="R78" s="8">
-        <v>0</v>
-      </c>
-      <c r="S78" s="7" t="str">
-        <f t="shared" si="8"/>
         <v>00000010</v>
       </c>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B79" s="4">
         <v>75</v>
       </c>
@@ -7333,53 +7637,56 @@
         <v>10</v>
       </c>
       <c r="F79" s="6">
+        <v>-16</v>
+      </c>
+      <c r="G79" s="6">
         <v>2</v>
       </c>
-      <c r="G79" s="7" t="str">
+      <c r="H79" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>FFFFFFF2</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J79" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>FFFFFFF2</v>
+      </c>
+      <c r="K79" s="7" t="str">
         <f t="shared" si="9"/>
-        <v>FFFFFFF2</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I79" s="7" t="str">
+        <v>2</v>
+      </c>
+      <c r="L79" s="8">
+        <v>0</v>
+      </c>
+      <c r="M79" s="8">
+        <v>0</v>
+      </c>
+      <c r="N79" s="8">
+        <v>0</v>
+      </c>
+      <c r="O79" s="8">
+        <v>0</v>
+      </c>
+      <c r="P79" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="8">
+        <v>0</v>
+      </c>
+      <c r="R79" s="8">
+        <v>1</v>
+      </c>
+      <c r="S79" s="8">
+        <v>0</v>
+      </c>
+      <c r="T79" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>FFFFFFF2</v>
-      </c>
-      <c r="J79" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="K79" s="8">
-        <v>0</v>
-      </c>
-      <c r="L79" s="8">
-        <v>0</v>
-      </c>
-      <c r="M79" s="8">
-        <v>0</v>
-      </c>
-      <c r="N79" s="8">
-        <v>0</v>
-      </c>
-      <c r="O79" s="8">
-        <v>0</v>
-      </c>
-      <c r="P79" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="8">
-        <v>1</v>
-      </c>
-      <c r="R79" s="8">
-        <v>0</v>
-      </c>
-      <c r="S79" s="7" t="str">
-        <f t="shared" si="8"/>
         <v>00000010</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B80" s="4">
         <v>76</v>
       </c>
@@ -7392,53 +7699,56 @@
       <c r="E80" s="6">
         <v>10</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F80" s="6">
+        <v>-16</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G80" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="H80" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I80" s="7" t="str">
+        <v>152</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J80" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>17FFFFFEE</v>
+      </c>
+      <c r="K80" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="L80" s="8">
+        <v>0</v>
+      </c>
+      <c r="M80" s="8">
+        <v>0</v>
+      </c>
+      <c r="N80" s="8">
+        <v>0</v>
+      </c>
+      <c r="O80" s="8">
+        <v>0</v>
+      </c>
+      <c r="P80" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="8">
+        <v>0</v>
+      </c>
+      <c r="R80" s="8">
+        <v>0</v>
+      </c>
+      <c r="S80" s="8">
+        <v>0</v>
+      </c>
+      <c r="T80" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>17FFFFFEE</v>
-      </c>
-      <c r="J80" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="K80" s="8">
-        <v>0</v>
-      </c>
-      <c r="L80" s="8">
-        <v>0</v>
-      </c>
-      <c r="M80" s="8">
-        <v>0</v>
-      </c>
-      <c r="N80" s="8">
-        <v>0</v>
-      </c>
-      <c r="O80" s="8">
-        <v>1</v>
-      </c>
-      <c r="P80" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="8">
-        <v>0</v>
-      </c>
-      <c r="R80" s="8">
-        <v>0</v>
-      </c>
-      <c r="S80" s="7" t="str">
-        <f t="shared" si="8"/>
         <v>00001000</v>
       </c>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B81" s="4">
         <v>77</v>
       </c>
@@ -7451,53 +7761,56 @@
       <c r="E81" s="6">
         <v>10</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="F81" s="6">
+        <v>-16</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G81" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="H81" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I81" s="7" t="str">
+        <v>143</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J81" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>17FFFFFEF</v>
+      </c>
+      <c r="K81" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="L81" s="8">
+        <v>0</v>
+      </c>
+      <c r="M81" s="8">
+        <v>0</v>
+      </c>
+      <c r="N81" s="8">
+        <v>0</v>
+      </c>
+      <c r="O81" s="8">
+        <v>0</v>
+      </c>
+      <c r="P81" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="8">
+        <v>0</v>
+      </c>
+      <c r="R81" s="8">
+        <v>0</v>
+      </c>
+      <c r="S81" s="8">
+        <v>0</v>
+      </c>
+      <c r="T81" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>17FFFFFEF</v>
-      </c>
-      <c r="J81" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="K81" s="8">
-        <v>0</v>
-      </c>
-      <c r="L81" s="8">
-        <v>0</v>
-      </c>
-      <c r="M81" s="8">
-        <v>0</v>
-      </c>
-      <c r="N81" s="8">
-        <v>0</v>
-      </c>
-      <c r="O81" s="8">
-        <v>1</v>
-      </c>
-      <c r="P81" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="8">
-        <v>0</v>
-      </c>
-      <c r="R81" s="8">
-        <v>0</v>
-      </c>
-      <c r="S81" s="7" t="str">
-        <f t="shared" si="8"/>
         <v>00001000</v>
       </c>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B82" s="4">
         <v>78</v>
       </c>
@@ -7510,53 +7823,56 @@
       <c r="E82" s="6">
         <v>10</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="F82" s="6">
+        <v>-16</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G82" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="H82" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I82" s="7" t="str">
+        <v>148</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J82" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>1FFFFFFEE</v>
+      </c>
+      <c r="K82" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="L82" s="8">
+        <v>0</v>
+      </c>
+      <c r="M82" s="8">
+        <v>0</v>
+      </c>
+      <c r="N82" s="8">
+        <v>0</v>
+      </c>
+      <c r="O82" s="8">
+        <v>0</v>
+      </c>
+      <c r="P82" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="8">
+        <v>0</v>
+      </c>
+      <c r="R82" s="8">
+        <v>1</v>
+      </c>
+      <c r="S82" s="8">
+        <v>0</v>
+      </c>
+      <c r="T82" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>1FFFFFFEE</v>
-      </c>
-      <c r="J82" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="K82" s="8">
-        <v>0</v>
-      </c>
-      <c r="L82" s="8">
-        <v>0</v>
-      </c>
-      <c r="M82" s="8">
-        <v>0</v>
-      </c>
-      <c r="N82" s="8">
-        <v>0</v>
-      </c>
-      <c r="O82" s="8">
-        <v>1</v>
-      </c>
-      <c r="P82" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="8">
-        <v>1</v>
-      </c>
-      <c r="R82" s="8">
-        <v>0</v>
-      </c>
-      <c r="S82" s="7" t="str">
-        <f t="shared" si="8"/>
         <v>00001010</v>
       </c>
     </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B83" s="4">
         <v>79</v>
       </c>
@@ -7569,53 +7885,56 @@
       <c r="E83" s="6">
         <v>10</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F83" s="6">
+        <v>-16</v>
+      </c>
+      <c r="G83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G83" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="H83" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I83" s="7" t="str">
+        <v>145</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J83" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>1FFFFFFEF</v>
+      </c>
+      <c r="K83" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="L83" s="8">
+        <v>0</v>
+      </c>
+      <c r="M83" s="8">
+        <v>0</v>
+      </c>
+      <c r="N83" s="8">
+        <v>0</v>
+      </c>
+      <c r="O83" s="8">
+        <v>0</v>
+      </c>
+      <c r="P83" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="8">
+        <v>0</v>
+      </c>
+      <c r="R83" s="8">
+        <v>1</v>
+      </c>
+      <c r="S83" s="8">
+        <v>0</v>
+      </c>
+      <c r="T83" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>1FFFFFFEF</v>
-      </c>
-      <c r="J83" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="K83" s="8">
-        <v>0</v>
-      </c>
-      <c r="L83" s="8">
-        <v>0</v>
-      </c>
-      <c r="M83" s="8">
-        <v>0</v>
-      </c>
-      <c r="N83" s="8">
-        <v>0</v>
-      </c>
-      <c r="O83" s="8">
-        <v>1</v>
-      </c>
-      <c r="P83" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="8">
-        <v>1</v>
-      </c>
-      <c r="R83" s="8">
-        <v>0</v>
-      </c>
-      <c r="S83" s="7" t="str">
-        <f t="shared" si="8"/>
         <v>00001010</v>
       </c>
     </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B84" s="4">
         <v>80</v>
       </c>
@@ -7629,52 +7948,55 @@
         <v>10</v>
       </c>
       <c r="F84" s="6">
+        <v>-16</v>
+      </c>
+      <c r="G84" s="6">
         <v>80000001</v>
       </c>
-      <c r="G84" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="H84" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I84" s="7" t="str">
+        <v>147</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J84" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>17FFFFFF1</v>
+      </c>
+      <c r="K84" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="L84" s="8">
+        <v>0</v>
+      </c>
+      <c r="M84" s="8">
+        <v>0</v>
+      </c>
+      <c r="N84" s="8">
+        <v>0</v>
+      </c>
+      <c r="O84" s="8">
+        <v>0</v>
+      </c>
+      <c r="P84" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="8">
+        <v>1</v>
+      </c>
+      <c r="R84" s="8">
+        <v>0</v>
+      </c>
+      <c r="S84" s="8">
+        <v>0</v>
+      </c>
+      <c r="T84" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>17FFFFFF1</v>
-      </c>
-      <c r="J84" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>C</v>
-      </c>
-      <c r="K84" s="8">
-        <v>0</v>
-      </c>
-      <c r="L84" s="8">
-        <v>0</v>
-      </c>
-      <c r="M84" s="8">
-        <v>0</v>
-      </c>
-      <c r="N84" s="8">
-        <v>0</v>
-      </c>
-      <c r="O84" s="8">
-        <v>1</v>
-      </c>
-      <c r="P84" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="8">
-        <v>0</v>
-      </c>
-      <c r="R84" s="8">
-        <v>0</v>
-      </c>
-      <c r="S84" s="7" t="str">
-        <f t="shared" si="8"/>
         <v>00001100</v>
       </c>
     </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B85" s="4">
         <v>81</v>
       </c>
@@ -7688,89 +8010,92 @@
         <v>10</v>
       </c>
       <c r="F85" s="6">
+        <v>-16</v>
+      </c>
+      <c r="G85" s="6">
         <v>80000000</v>
       </c>
-      <c r="G85" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="H85" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I85" s="7" t="str">
+        <v>144</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J85" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>17FFFFFF0</v>
+      </c>
+      <c r="K85" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="L85" s="8">
+        <v>0</v>
+      </c>
+      <c r="M85" s="8">
+        <v>0</v>
+      </c>
+      <c r="N85" s="8">
+        <v>0</v>
+      </c>
+      <c r="O85" s="8">
+        <v>0</v>
+      </c>
+      <c r="P85" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="8">
+        <v>1</v>
+      </c>
+      <c r="R85" s="8">
+        <v>0</v>
+      </c>
+      <c r="S85" s="8">
+        <v>0</v>
+      </c>
+      <c r="T85" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>17FFFFFF0</v>
-      </c>
-      <c r="J85" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>C</v>
-      </c>
-      <c r="K85" s="8">
-        <v>0</v>
-      </c>
-      <c r="L85" s="8">
-        <v>0</v>
-      </c>
-      <c r="M85" s="8">
-        <v>0</v>
-      </c>
-      <c r="N85" s="8">
-        <v>0</v>
-      </c>
-      <c r="O85" s="8">
-        <v>1</v>
-      </c>
-      <c r="P85" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="8">
-        <v>0</v>
-      </c>
-      <c r="R85" s="8">
-        <v>0</v>
-      </c>
-      <c r="S85" s="7" t="str">
-        <f t="shared" si="8"/>
         <v>00001100</v>
       </c>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B88" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B89" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B90" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:R85"/>
+  <autoFilter ref="B4:S85"/>
   <mergeCells count="6">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="K3:S3"/>
-    <mergeCell ref="G2:S2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="H2:T2"/>
+    <mergeCell ref="E2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>